--- a/results/summary_node_classification_GCN_None.csv.xlsx
+++ b/results/summary_node_classification_GCN_None.csv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -471,6 +471,22 @@
         <v>0.0023311671698874</v>
       </c>
     </row>
+    <row r="3">
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>pubmed</t>
+        </is>
+      </c>
+      <c r="B3" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C3" t="n">
+        <v>0.8469269776876267</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.0012493200138551</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/results/summary_node_classification_GCN_None.csv.xlsx
+++ b/results/summary_node_classification_GCN_None.csv.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D3"/>
+  <dimension ref="A1:D4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -487,6 +487,22 @@
         <v>0.0012493200138551</v>
       </c>
     </row>
+    <row r="4">
+      <c r="A4" s="1" t="inlineStr">
+        <is>
+          <t>squirrel</t>
+        </is>
+      </c>
+      <c r="B4" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.3908165225744476</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.0036255511267127</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
